--- a/Data/aearep-977/candidatepackages.xlsx
+++ b/Data/aearep-977/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,51 +22,27 @@
     <t>outreg2</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>network</t>
+    <t>cluster</t>
   </si>
   <si>
     <t>est2tex</t>
   </si>
   <si>
-    <t>cluster</t>
-  </si>
-  <si>
     <t>dummies2</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
     <t>combine</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>stack</t>
   </si>
   <si>
+    <t>dash</t>
+  </si>
+  <si>
     <t>digits</t>
   </si>
   <si>
-    <t>dash</t>
-  </si>
-  <si>
     <t>Package popularity (rank out of total # of packages)</t>
   </si>
   <si>
@@ -79,16 +55,10 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-977</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-977/119621/Code</t>
   </si>
   <si>
     <t>filename</t>
-  </si>
-  <si>
-    <t>PII_stata_scan.do</t>
   </si>
   <si>
     <t>figures_stata.do</t>
@@ -141,7 +111,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D9"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -149,13 +119,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
@@ -163,7 +133,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -175,10 +145,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>563</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D3"/>
     </row>
@@ -187,10 +157,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>606</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.20033058524131775</v>
       </c>
       <c r="D4"/>
     </row>
@@ -199,10 +169,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>267</v>
+        <v>636</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.21024793386459351</v>
       </c>
       <c r="D5"/>
     </row>
@@ -211,10 +181,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>279</v>
+        <v>1414</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D6"/>
     </row>
@@ -223,10 +193,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>551</v>
+        <v>2226</v>
       </c>
       <c r="C7">
-        <v>0.18269230425357819</v>
+        <v>0.73586779832839966</v>
       </c>
       <c r="D7"/>
     </row>
@@ -235,10 +205,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>566</v>
+        <v>2436</v>
       </c>
       <c r="C8">
-        <v>0.18766577541828156</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D8"/>
     </row>
@@ -247,108 +217,12 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>952</v>
+        <v>2540</v>
       </c>
       <c r="C9">
-        <v>0.31564986705780029</v>
+        <v>0.83966940641403198</v>
       </c>
       <c r="D9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1124</v>
-      </c>
-      <c r="C10">
-        <v>0.37267905473709106</v>
-      </c>
-      <c r="D10"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1423</v>
-      </c>
-      <c r="C11">
-        <v>0.47181698679924011</v>
-      </c>
-      <c r="D11"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1798</v>
-      </c>
-      <c r="C12">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D12"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1817</v>
-      </c>
-      <c r="C13">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D13"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1859</v>
-      </c>
-      <c r="C14">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D14"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>2330</v>
-      </c>
-      <c r="C15">
-        <v>0.77254641056060791</v>
-      </c>
-      <c r="D15"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>2375</v>
-      </c>
-      <c r="C16">
-        <v>0.78746682405471802</v>
-      </c>
-      <c r="D16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2424</v>
-      </c>
-      <c r="C17">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D17"/>
     </row>
   </sheetData>
 </worksheet>
@@ -356,47 +230,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
